--- a/Code/Results/Cases/Case_5_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_151/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.37732028006138</v>
+        <v>17.93638541084482</v>
       </c>
       <c r="C2">
-        <v>7.348657639193452</v>
+        <v>6.267222904724992</v>
       </c>
       <c r="D2">
-        <v>2.544552702159808</v>
+        <v>3.776792924455576</v>
       </c>
       <c r="E2">
-        <v>5.682160053915178</v>
+        <v>10.49183963931405</v>
       </c>
       <c r="F2">
-        <v>46.83878803557002</v>
+        <v>56.73234970993191</v>
       </c>
       <c r="I2">
-        <v>33.02561329060094</v>
+        <v>41.13147533566444</v>
       </c>
       <c r="J2">
-        <v>6.283556996106861</v>
+        <v>10.31861299239345</v>
       </c>
       <c r="K2">
-        <v>11.78508677449611</v>
+        <v>16.29887471242854</v>
       </c>
       <c r="L2">
-        <v>6.956358051105091</v>
+        <v>11.88618270867793</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.72084362332634</v>
+        <v>17.89379833172608</v>
       </c>
       <c r="C3">
-        <v>6.821223004959808</v>
+        <v>6.147647537142801</v>
       </c>
       <c r="D3">
-        <v>2.543281302676384</v>
+        <v>3.795759176705817</v>
       </c>
       <c r="E3">
-        <v>5.690287567215205</v>
+        <v>10.51373394722378</v>
       </c>
       <c r="F3">
-        <v>45.7168706308061</v>
+        <v>56.54239607837059</v>
       </c>
       <c r="I3">
-        <v>32.43064660973305</v>
+        <v>41.03273893390486</v>
       </c>
       <c r="J3">
-        <v>6.303106933354166</v>
+        <v>10.33078947304548</v>
       </c>
       <c r="K3">
-        <v>11.26986292433814</v>
+        <v>16.27115215239635</v>
       </c>
       <c r="L3">
-        <v>6.883029185897007</v>
+        <v>11.90546665009949</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.31160651951981</v>
+        <v>17.87280340412051</v>
       </c>
       <c r="C4">
-        <v>6.523402683004688</v>
+        <v>6.075128913113737</v>
       </c>
       <c r="D4">
-        <v>2.541564330023158</v>
+        <v>3.808166578393161</v>
       </c>
       <c r="E4">
-        <v>5.697420222042275</v>
+        <v>10.52828887710655</v>
       </c>
       <c r="F4">
-        <v>45.03811564216382</v>
+        <v>56.43286028250733</v>
       </c>
       <c r="I4">
-        <v>32.07419567604139</v>
+        <v>40.97632699897954</v>
       </c>
       <c r="J4">
-        <v>6.31633973376032</v>
+        <v>10.33886500076158</v>
       </c>
       <c r="K4">
-        <v>10.95129711653987</v>
+        <v>16.2584155173799</v>
       </c>
       <c r="L4">
-        <v>6.841545945365008</v>
+        <v>11.91909959623436</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.14352716633304</v>
+        <v>17.8655519223222</v>
       </c>
       <c r="C5">
-        <v>6.400805240355567</v>
+        <v>6.045848442110091</v>
       </c>
       <c r="D5">
-        <v>2.54063509489118</v>
+        <v>3.81341485492007</v>
       </c>
       <c r="E5">
-        <v>5.700857580984652</v>
+        <v>10.53450023911083</v>
       </c>
       <c r="F5">
-        <v>44.76421009650448</v>
+        <v>56.39002711416671</v>
       </c>
       <c r="I5">
-        <v>31.93118471888247</v>
+        <v>40.95440529428512</v>
       </c>
       <c r="J5">
-        <v>6.322038218553184</v>
+        <v>10.3423068015808</v>
       </c>
       <c r="K5">
-        <v>10.82110697055597</v>
+        <v>16.25430763588231</v>
       </c>
       <c r="L5">
-        <v>6.825524029131845</v>
+        <v>11.92510608772493</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.11554615613527</v>
+        <v>17.86442679583351</v>
       </c>
       <c r="C6">
-        <v>6.380299939984956</v>
+        <v>6.041004148198087</v>
       </c>
       <c r="D6">
-        <v>2.540467093603336</v>
+        <v>3.814297949058034</v>
       </c>
       <c r="E6">
-        <v>5.701460178479763</v>
+        <v>10.53554856526478</v>
       </c>
       <c r="F6">
-        <v>44.71889545239998</v>
+        <v>56.38302415199504</v>
       </c>
       <c r="I6">
-        <v>31.9075739996483</v>
+        <v>40.95082983117467</v>
       </c>
       <c r="J6">
-        <v>6.323002844509812</v>
+        <v>10.34288743639976</v>
       </c>
       <c r="K6">
-        <v>10.79947242151083</v>
+        <v>16.25369102236763</v>
       </c>
       <c r="L6">
-        <v>6.822916681458768</v>
+        <v>11.92613070279154</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.30934471324181</v>
+        <v>17.87270031805633</v>
       </c>
       <c r="C7">
-        <v>6.521759277098586</v>
+        <v>6.074732868051564</v>
       </c>
       <c r="D7">
-        <v>2.541552720102879</v>
+        <v>3.808236579714547</v>
       </c>
       <c r="E7">
-        <v>5.697464440864565</v>
+        <v>10.52837151081204</v>
       </c>
       <c r="F7">
-        <v>45.03441054936817</v>
+        <v>56.43227529315909</v>
       </c>
       <c r="I7">
-        <v>32.07225786442221</v>
+        <v>40.97602702754244</v>
       </c>
       <c r="J7">
-        <v>6.316415350367907</v>
+        <v>10.33891080646598</v>
       </c>
       <c r="K7">
-        <v>10.94954256995014</v>
+        <v>16.25835572878965</v>
       </c>
       <c r="L7">
-        <v>6.841326304363929</v>
+        <v>11.91917877574259</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.15237494846998</v>
+        <v>17.92063707169216</v>
       </c>
       <c r="C8">
-        <v>7.17015742337818</v>
+        <v>6.225833167128649</v>
       </c>
       <c r="D8">
-        <v>2.544312381275777</v>
+        <v>3.783174647639991</v>
       </c>
       <c r="E8">
-        <v>5.684512919873043</v>
+        <v>10.49915838940633</v>
       </c>
       <c r="F8">
-        <v>46.44994119920651</v>
+        <v>56.66539277675376</v>
       </c>
       <c r="I8">
-        <v>32.81863979250423</v>
+        <v>41.09656130428834</v>
       </c>
       <c r="J8">
-        <v>6.290040829554234</v>
+        <v>10.3226872784836</v>
       </c>
       <c r="K8">
-        <v>11.6080009517688</v>
+        <v>16.28842981370651</v>
       </c>
       <c r="L8">
-        <v>6.930335047567088</v>
+        <v>11.89245991162408</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.74832438902841</v>
+        <v>18.05510837660585</v>
       </c>
       <c r="C9">
-        <v>8.398081040471016</v>
+        <v>6.527333364683534</v>
       </c>
       <c r="D9">
-        <v>2.541997003251866</v>
+        <v>3.740050810041211</v>
       </c>
       <c r="E9">
-        <v>5.676484817911438</v>
+        <v>10.45066811854126</v>
       </c>
       <c r="F9">
-        <v>49.30002372378647</v>
+        <v>57.17793648595561</v>
       </c>
       <c r="I9">
-        <v>34.35202403670993</v>
+        <v>41.36600640648416</v>
       </c>
       <c r="J9">
-        <v>6.248220332949094</v>
+        <v>10.29561326735543</v>
       </c>
       <c r="K9">
-        <v>12.87485387216636</v>
+        <v>16.38114755841291</v>
       </c>
       <c r="L9">
-        <v>7.133287889520029</v>
+        <v>11.8542769554583</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.87753123015735</v>
+        <v>18.17791207231296</v>
       </c>
       <c r="C10">
-        <v>9.22645183481367</v>
+        <v>6.749443734800346</v>
       </c>
       <c r="D10">
-        <v>2.535116980635546</v>
+        <v>3.712006463408853</v>
       </c>
       <c r="E10">
-        <v>5.681712519461116</v>
+        <v>10.42037164457624</v>
       </c>
       <c r="F10">
-        <v>51.43276384359805</v>
+        <v>57.58696627340885</v>
       </c>
       <c r="I10">
-        <v>35.52088898439499</v>
+        <v>41.58363032356525</v>
       </c>
       <c r="J10">
-        <v>6.223752892947179</v>
+        <v>10.2785935422438</v>
       </c>
       <c r="K10">
-        <v>13.78361874123914</v>
+        <v>16.46942855084456</v>
       </c>
       <c r="L10">
-        <v>7.30014044346507</v>
+        <v>11.83487293966059</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.38078000535312</v>
+        <v>18.23882206970751</v>
       </c>
       <c r="C11">
-        <v>9.588210127313564</v>
+        <v>6.850098566240064</v>
       </c>
       <c r="D11">
-        <v>2.530741622904749</v>
+        <v>3.700031606282018</v>
       </c>
       <c r="E11">
-        <v>5.686631031539429</v>
+        <v>10.40773914105901</v>
       </c>
       <c r="F11">
-        <v>52.41059013623567</v>
+        <v>57.77978099216224</v>
       </c>
       <c r="I11">
-        <v>36.06197373044616</v>
+        <v>41.68678013741296</v>
       </c>
       <c r="J11">
-        <v>6.214035692808345</v>
+        <v>10.27147050443699</v>
       </c>
       <c r="K11">
-        <v>14.23807779988896</v>
+        <v>16.51386016131464</v>
       </c>
       <c r="L11">
-        <v>7.37999700559829</v>
+        <v>11.82791925574072</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.56980384517648</v>
+        <v>18.26259641209464</v>
       </c>
       <c r="C12">
-        <v>9.723116974642663</v>
+        <v>6.888117779970691</v>
       </c>
       <c r="D12">
-        <v>2.528894081238291</v>
+        <v>3.695609056831714</v>
       </c>
       <c r="E12">
-        <v>5.688869788320428</v>
+        <v>10.40312027599728</v>
       </c>
       <c r="F12">
-        <v>52.78193667377506</v>
+        <v>57.85373559035433</v>
       </c>
       <c r="I12">
-        <v>36.26824355631929</v>
+        <v>41.72642542281078</v>
       </c>
       <c r="J12">
-        <v>6.21056433644384</v>
+        <v>10.26886194863951</v>
       </c>
       <c r="K12">
-        <v>14.4360751265969</v>
+        <v>16.53128899963657</v>
       </c>
       <c r="L12">
-        <v>7.410814311603596</v>
+        <v>11.82555497256775</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.52916330048505</v>
+        <v>18.2574449233359</v>
       </c>
       <c r="C13">
-        <v>9.694153591722856</v>
+        <v>6.879934593807578</v>
       </c>
       <c r="D13">
-        <v>2.529300663193263</v>
+        <v>3.696556555198409</v>
       </c>
       <c r="E13">
-        <v>5.68837071799519</v>
+        <v>10.40410771026639</v>
       </c>
       <c r="F13">
-        <v>52.70191328048212</v>
+        <v>57.83776683860074</v>
       </c>
       <c r="I13">
-        <v>36.22375798992495</v>
+        <v>41.71786130067465</v>
       </c>
       <c r="J13">
-        <v>6.211302602559665</v>
+        <v>10.26941980345435</v>
       </c>
       <c r="K13">
-        <v>14.39357561543773</v>
+        <v>16.52750872552905</v>
       </c>
       <c r="L13">
-        <v>7.404151416883799</v>
+        <v>11.82605221058178</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.39636223172182</v>
+        <v>18.24076388788504</v>
       </c>
       <c r="C14">
-        <v>9.599350233081658</v>
+        <v>6.853228594962458</v>
       </c>
       <c r="D14">
-        <v>2.530593517685685</v>
+        <v>3.699665517149938</v>
       </c>
       <c r="E14">
-        <v>5.686807610305685</v>
+        <v>10.40735584453239</v>
       </c>
       <c r="F14">
-        <v>52.44111974104347</v>
+        <v>57.78584662291711</v>
       </c>
       <c r="I14">
-        <v>36.07891594524758</v>
+        <v>41.6900301339306</v>
       </c>
       <c r="J14">
-        <v>6.213745895787187</v>
+        <v>10.27125411918038</v>
       </c>
       <c r="K14">
-        <v>14.25443165362303</v>
+        <v>16.51528201120028</v>
       </c>
       <c r="L14">
-        <v>7.382520736446758</v>
+        <v>11.82771935788276</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.31481566648549</v>
+        <v>18.2306380990876</v>
       </c>
       <c r="C15">
-        <v>9.541011786961336</v>
+        <v>6.836856629661704</v>
       </c>
       <c r="D15">
-        <v>2.531360226981273</v>
+        <v>3.701584426797028</v>
       </c>
       <c r="E15">
-        <v>5.685899492952295</v>
+        <v>10.40936686595316</v>
       </c>
       <c r="F15">
-        <v>52.28151456495499</v>
+        <v>57.75416547029032</v>
       </c>
       <c r="I15">
-        <v>35.99037587588924</v>
+        <v>41.67305850685468</v>
       </c>
       <c r="J15">
-        <v>6.215269775279593</v>
+        <v>10.27238924472855</v>
       </c>
       <c r="K15">
-        <v>14.16878201611007</v>
+        <v>16.5078710605739</v>
       </c>
       <c r="L15">
-        <v>7.369346798171003</v>
+        <v>11.82877554132679</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.84442819730805</v>
+        <v>18.17403161112663</v>
       </c>
       <c r="C16">
-        <v>9.202513803854638</v>
+        <v>6.742854393032315</v>
       </c>
       <c r="D16">
-        <v>2.535376898865654</v>
+        <v>3.7128047567002</v>
       </c>
       <c r="E16">
-        <v>5.681443120145819</v>
+        <v>10.42122029606329</v>
       </c>
       <c r="F16">
-        <v>51.3690105047994</v>
+        <v>57.57449856753736</v>
       </c>
       <c r="I16">
-        <v>35.48571808716635</v>
+        <v>41.57697174631046</v>
       </c>
       <c r="J16">
-        <v>6.224416798689173</v>
+        <v>10.27907148842499</v>
       </c>
       <c r="K16">
-        <v>13.75685552940738</v>
+        <v>16.46660990660891</v>
       </c>
       <c r="L16">
-        <v>7.29500190964708</v>
+        <v>11.83536503765181</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.55314614821934</v>
+        <v>18.14058636894487</v>
       </c>
       <c r="C17">
-        <v>8.991053342532314</v>
+        <v>6.685058600093879</v>
       </c>
       <c r="D17">
-        <v>2.537514174662556</v>
+        <v>3.719888182085686</v>
       </c>
       <c r="E17">
-        <v>5.679367493784055</v>
+        <v>10.42878604770298</v>
       </c>
       <c r="F17">
-        <v>50.81113832039657</v>
+        <v>57.4659853727728</v>
       </c>
       <c r="I17">
-        <v>35.17853828599927</v>
+        <v>41.51908043435193</v>
       </c>
       <c r="J17">
-        <v>6.230393646354699</v>
+        <v>10.2833292563951</v>
       </c>
       <c r="K17">
-        <v>13.52166301487089</v>
+        <v>16.44238434666205</v>
       </c>
       <c r="L17">
-        <v>7.25041225417695</v>
+        <v>11.83988697583987</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.38462704057122</v>
+        <v>18.12182557264948</v>
       </c>
       <c r="C18">
-        <v>8.868002750808744</v>
+        <v>6.651782167769419</v>
       </c>
       <c r="D18">
-        <v>2.538627010119573</v>
+        <v>3.724036076451825</v>
       </c>
       <c r="E18">
-        <v>5.678412072490519</v>
+        <v>10.43324589615136</v>
       </c>
       <c r="F18">
-        <v>50.49098307445055</v>
+        <v>57.40420822240798</v>
       </c>
       <c r="I18">
-        <v>35.00273527021449</v>
+        <v>41.48617443532436</v>
       </c>
       <c r="J18">
-        <v>6.233964050933162</v>
+        <v>10.28583652159873</v>
       </c>
       <c r="K18">
-        <v>13.38585050843929</v>
+        <v>16.4288532641465</v>
       </c>
       <c r="L18">
-        <v>7.225137078840273</v>
+        <v>11.84266423009667</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.32740271813324</v>
+        <v>18.1155557311432</v>
       </c>
       <c r="C19">
-        <v>8.826092907820826</v>
+        <v>6.640510822995675</v>
       </c>
       <c r="D19">
-        <v>2.538984123192176</v>
+        <v>3.725453154083107</v>
       </c>
       <c r="E19">
-        <v>5.678129211188735</v>
+        <v>10.43477452799828</v>
       </c>
       <c r="F19">
-        <v>50.38270896108792</v>
+        <v>57.38340179867738</v>
       </c>
       <c r="I19">
-        <v>34.94336177484794</v>
+        <v>41.47510064180392</v>
       </c>
       <c r="J19">
-        <v>6.235195567887835</v>
+        <v>10.28669546160428</v>
       </c>
       <c r="K19">
-        <v>13.33977649161958</v>
+        <v>16.42434136998063</v>
       </c>
       <c r="L19">
-        <v>7.216642925581933</v>
+        <v>11.84363486252535</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.58425561779644</v>
+        <v>18.1440975217426</v>
       </c>
       <c r="C20">
-        <v>9.013710477865841</v>
+        <v>6.691214867076183</v>
       </c>
       <c r="D20">
-        <v>2.537298791424656</v>
+        <v>3.719126515630215</v>
       </c>
       <c r="E20">
-        <v>5.679563694875187</v>
+        <v>10.42796946301071</v>
       </c>
       <c r="F20">
-        <v>50.8704508081534</v>
+        <v>57.47747109789132</v>
       </c>
       <c r="I20">
-        <v>35.21114702333175</v>
+        <v>41.52520262614298</v>
       </c>
       <c r="J20">
-        <v>6.229743633225197</v>
+        <v>10.28286997689009</v>
       </c>
       <c r="K20">
-        <v>13.54675554680564</v>
+        <v>16.44492158391619</v>
       </c>
       <c r="L20">
-        <v>7.255120380753468</v>
+        <v>11.83938735882692</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.43541127355405</v>
+        <v>18.24564440688548</v>
       </c>
       <c r="C21">
-        <v>9.627252102311914</v>
+        <v>6.861075734654603</v>
       </c>
       <c r="D21">
-        <v>2.530219049659436</v>
+        <v>3.698749301902847</v>
       </c>
       <c r="E21">
-        <v>5.687256431851996</v>
+        <v>10.40639732047089</v>
       </c>
       <c r="F21">
-        <v>52.51769228481259</v>
+        <v>57.80107158845875</v>
       </c>
       <c r="I21">
-        <v>36.12142200809005</v>
+        <v>41.69818905560673</v>
       </c>
       <c r="J21">
-        <v>6.213022543913208</v>
+        <v>10.27071292878873</v>
       </c>
       <c r="K21">
-        <v>14.29538892109712</v>
+        <v>16.51885700372516</v>
       </c>
       <c r="L21">
-        <v>7.388858443878137</v>
+        <v>11.82722238165701</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.98268336929236</v>
+        <v>18.31613553321995</v>
       </c>
       <c r="C22">
-        <v>10.01613992678499</v>
+        <v>6.971508969194801</v>
       </c>
       <c r="D22">
-        <v>2.524474097821564</v>
+        <v>3.686084622665606</v>
       </c>
       <c r="E22">
-        <v>5.694482589788035</v>
+        <v>10.39325896328184</v>
       </c>
       <c r="F22">
-        <v>53.60048147892563</v>
+        <v>58.01802642340084</v>
       </c>
       <c r="I22">
-        <v>36.72436670428216</v>
+        <v>41.81464749031713</v>
       </c>
       <c r="J22">
-        <v>6.203311424362127</v>
+        <v>10.26328497015265</v>
       </c>
       <c r="K22">
-        <v>14.86576510731216</v>
+        <v>16.57069040892204</v>
       </c>
       <c r="L22">
-        <v>7.479634771344282</v>
+        <v>11.82083911696198</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.69142488531198</v>
+        <v>18.27814148866851</v>
       </c>
       <c r="C23">
-        <v>9.809660048214955</v>
+        <v>6.91263491745187</v>
       </c>
       <c r="D23">
-        <v>2.527646789565388</v>
+        <v>3.692784405651961</v>
       </c>
       <c r="E23">
-        <v>5.690420893673746</v>
+        <v>10.40018345386398</v>
       </c>
       <c r="F23">
-        <v>53.02200738067796</v>
+        <v>57.90174396628822</v>
       </c>
       <c r="I23">
-        <v>36.40181569489292</v>
+        <v>41.7521844187638</v>
       </c>
       <c r="J23">
-        <v>6.208381247179292</v>
+        <v>10.2672021617225</v>
       </c>
       <c r="K23">
-        <v>14.5630351754246</v>
+        <v>16.54270835793963</v>
       </c>
       <c r="L23">
-        <v>7.43087392928679</v>
+        <v>11.82410274798777</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.57019431565795</v>
+        <v>18.14250867268132</v>
       </c>
       <c r="C24">
-        <v>9.003471800477564</v>
+        <v>6.688431767806061</v>
       </c>
       <c r="D24">
-        <v>2.537396526374086</v>
+        <v>3.719470629714211</v>
       </c>
       <c r="E24">
-        <v>5.679474252222771</v>
+        <v>10.42833829766901</v>
       </c>
       <c r="F24">
-        <v>50.84363384496018</v>
+        <v>57.47227650372945</v>
       </c>
       <c r="I24">
-        <v>35.1964021270293</v>
+        <v>41.52243360954176</v>
       </c>
       <c r="J24">
-        <v>6.230037086430189</v>
+        <v>10.28307743205615</v>
       </c>
       <c r="K24">
-        <v>13.53541306947458</v>
+        <v>16.44377326305317</v>
       </c>
       <c r="L24">
-        <v>7.252990716002953</v>
+        <v>11.83961268266021</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.32371741719694</v>
+        <v>18.01446088613152</v>
       </c>
       <c r="C25">
-        <v>8.079145225089638</v>
+        <v>6.445483101346213</v>
       </c>
       <c r="D25">
-        <v>2.543495660812538</v>
+        <v>3.75107560713835</v>
       </c>
       <c r="E25">
-        <v>5.676743063548823</v>
+        <v>10.46284772993057</v>
       </c>
       <c r="F25">
-        <v>48.52180408568726</v>
+        <v>57.03347723196411</v>
       </c>
       <c r="I25">
-        <v>33.92978784735583</v>
+        <v>41.28962188535014</v>
       </c>
       <c r="J25">
-        <v>6.258452166337011</v>
+        <v>10.30243191578426</v>
       </c>
       <c r="K25">
-        <v>12.53558600937493</v>
+        <v>16.35249087744309</v>
       </c>
       <c r="L25">
-        <v>7.075298362748652</v>
+        <v>11.86308625632313</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_151/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.93638541084482</v>
+        <v>13.37732028006142</v>
       </c>
       <c r="C2">
-        <v>6.267222904724992</v>
+        <v>7.348657639193509</v>
       </c>
       <c r="D2">
-        <v>3.776792924455576</v>
+        <v>2.544552702159943</v>
       </c>
       <c r="E2">
-        <v>10.49183963931405</v>
+        <v>5.682160053915347</v>
       </c>
       <c r="F2">
-        <v>56.73234970993191</v>
+        <v>46.83878803557029</v>
       </c>
       <c r="I2">
-        <v>41.13147533566444</v>
+        <v>33.02561329060121</v>
       </c>
       <c r="J2">
-        <v>10.31861299239345</v>
+        <v>6.283556996106982</v>
       </c>
       <c r="K2">
-        <v>16.29887471242854</v>
+        <v>11.78508677449614</v>
       </c>
       <c r="L2">
-        <v>11.88618270867793</v>
+        <v>6.956358051105084</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.89379833172608</v>
+        <v>12.72084362332636</v>
       </c>
       <c r="C3">
-        <v>6.147647537142801</v>
+        <v>6.821223004959958</v>
       </c>
       <c r="D3">
-        <v>3.795759176705817</v>
+        <v>2.543281302676385</v>
       </c>
       <c r="E3">
-        <v>10.51373394722378</v>
+        <v>5.690287567215266</v>
       </c>
       <c r="F3">
-        <v>56.54239607837059</v>
+        <v>45.71687063080601</v>
       </c>
       <c r="I3">
-        <v>41.03273893390486</v>
+        <v>32.43064660973306</v>
       </c>
       <c r="J3">
-        <v>10.33078947304548</v>
+        <v>6.303106933354233</v>
       </c>
       <c r="K3">
-        <v>16.27115215239635</v>
+        <v>11.26986292433809</v>
       </c>
       <c r="L3">
-        <v>11.90546665009949</v>
+        <v>6.883029185896955</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.87280340412051</v>
+        <v>12.31160651951971</v>
       </c>
       <c r="C4">
-        <v>6.075128913113737</v>
+        <v>6.523402683004688</v>
       </c>
       <c r="D4">
-        <v>3.808166578393161</v>
+        <v>2.541564330023359</v>
       </c>
       <c r="E4">
-        <v>10.52828887710655</v>
+        <v>5.697420222042224</v>
       </c>
       <c r="F4">
-        <v>56.43286028250733</v>
+        <v>45.0381156421632</v>
       </c>
       <c r="I4">
-        <v>40.97632699897954</v>
+        <v>32.07419567604099</v>
       </c>
       <c r="J4">
-        <v>10.33886500076158</v>
+        <v>6.316339733760325</v>
       </c>
       <c r="K4">
-        <v>16.2584155173799</v>
+        <v>10.95129711653978</v>
       </c>
       <c r="L4">
-        <v>11.91909959623436</v>
+        <v>6.841545945364906</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.8655519223222</v>
+        <v>12.14352716633304</v>
       </c>
       <c r="C5">
-        <v>6.045848442110091</v>
+        <v>6.400805240355506</v>
       </c>
       <c r="D5">
-        <v>3.81341485492007</v>
+        <v>2.540635094891247</v>
       </c>
       <c r="E5">
-        <v>10.53450023911083</v>
+        <v>5.700857580984779</v>
       </c>
       <c r="F5">
-        <v>56.39002711416671</v>
+        <v>44.76421009650451</v>
       </c>
       <c r="I5">
-        <v>40.95440529428512</v>
+        <v>31.93118471888243</v>
       </c>
       <c r="J5">
-        <v>10.3423068015808</v>
+        <v>6.322038218553283</v>
       </c>
       <c r="K5">
-        <v>16.25430763588231</v>
+        <v>10.82110697055596</v>
       </c>
       <c r="L5">
-        <v>11.92510608772493</v>
+        <v>6.825524029131959</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.86442679583351</v>
+        <v>12.11554615613522</v>
       </c>
       <c r="C6">
-        <v>6.041004148198087</v>
+        <v>6.380299939985</v>
       </c>
       <c r="D6">
-        <v>3.814297949058034</v>
+        <v>2.540467093603471</v>
       </c>
       <c r="E6">
-        <v>10.53554856526478</v>
+        <v>5.701460178479585</v>
       </c>
       <c r="F6">
-        <v>56.38302415199504</v>
+        <v>44.71889545240001</v>
       </c>
       <c r="I6">
-        <v>40.95082983117467</v>
+        <v>31.90757399964827</v>
       </c>
       <c r="J6">
-        <v>10.34288743639976</v>
+        <v>6.323002844509689</v>
       </c>
       <c r="K6">
-        <v>16.25369102236763</v>
+        <v>10.79947242151083</v>
       </c>
       <c r="L6">
-        <v>11.92613070279154</v>
+        <v>6.82291668145872</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.87270031805633</v>
+        <v>12.30934471324173</v>
       </c>
       <c r="C7">
-        <v>6.074732868051564</v>
+        <v>6.521759277098586</v>
       </c>
       <c r="D7">
-        <v>3.808236579714547</v>
+        <v>2.541552720102818</v>
       </c>
       <c r="E7">
-        <v>10.52837151081204</v>
+        <v>5.697464440864575</v>
       </c>
       <c r="F7">
-        <v>56.43227529315909</v>
+        <v>45.03441054936822</v>
       </c>
       <c r="I7">
-        <v>40.97602702754244</v>
+        <v>32.07225786442218</v>
       </c>
       <c r="J7">
-        <v>10.33891080646598</v>
+        <v>6.316415350367855</v>
       </c>
       <c r="K7">
-        <v>16.25835572878965</v>
+        <v>10.94954256995011</v>
       </c>
       <c r="L7">
-        <v>11.91917877574259</v>
+        <v>6.841326304363994</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.92063707169216</v>
+        <v>13.15237494846997</v>
       </c>
       <c r="C8">
-        <v>6.225833167128649</v>
+        <v>7.170157423378186</v>
       </c>
       <c r="D8">
-        <v>3.783174647639991</v>
+        <v>2.544312381275715</v>
       </c>
       <c r="E8">
-        <v>10.49915838940633</v>
+        <v>5.684512919872993</v>
       </c>
       <c r="F8">
-        <v>56.66539277675376</v>
+        <v>46.44994119920668</v>
       </c>
       <c r="I8">
-        <v>41.09656130428834</v>
+        <v>32.81863979250436</v>
       </c>
       <c r="J8">
-        <v>10.3226872784836</v>
+        <v>6.290040829554211</v>
       </c>
       <c r="K8">
-        <v>16.28842981370651</v>
+        <v>11.60800095176879</v>
       </c>
       <c r="L8">
-        <v>11.89245991162408</v>
+        <v>6.93033504756704</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.05510837660585</v>
+        <v>14.7483243890284</v>
       </c>
       <c r="C9">
-        <v>6.527333364683534</v>
+        <v>8.39808104047105</v>
       </c>
       <c r="D9">
-        <v>3.740050810041211</v>
+        <v>2.541997003251872</v>
       </c>
       <c r="E9">
-        <v>10.45066811854126</v>
+        <v>5.676484817911442</v>
       </c>
       <c r="F9">
-        <v>57.17793648595561</v>
+        <v>49.30002372378661</v>
       </c>
       <c r="I9">
-        <v>41.36600640648416</v>
+        <v>34.35202403671004</v>
       </c>
       <c r="J9">
-        <v>10.29561326735543</v>
+        <v>6.248220332949129</v>
       </c>
       <c r="K9">
-        <v>16.38114755841291</v>
+        <v>12.87485387216638</v>
       </c>
       <c r="L9">
-        <v>11.8542769554583</v>
+        <v>7.133287889520062</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.17791207231296</v>
+        <v>15.87753123015736</v>
       </c>
       <c r="C10">
-        <v>6.749443734800346</v>
+        <v>9.226451834813526</v>
       </c>
       <c r="D10">
-        <v>3.712006463408853</v>
+        <v>2.535116980635549</v>
       </c>
       <c r="E10">
-        <v>10.42037164457624</v>
+        <v>5.681712519461061</v>
       </c>
       <c r="F10">
-        <v>57.58696627340885</v>
+        <v>51.43276384359822</v>
       </c>
       <c r="I10">
-        <v>41.58363032356525</v>
+        <v>35.52088898439509</v>
       </c>
       <c r="J10">
-        <v>10.2785935422438</v>
+        <v>6.22375289294707</v>
       </c>
       <c r="K10">
-        <v>16.46942855084456</v>
+        <v>13.78361874123913</v>
       </c>
       <c r="L10">
-        <v>11.83487293966059</v>
+        <v>7.300140443465061</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.23882206970751</v>
+        <v>16.38078000535312</v>
       </c>
       <c r="C11">
-        <v>6.850098566240064</v>
+        <v>9.5882101273136</v>
       </c>
       <c r="D11">
-        <v>3.700031606282018</v>
+        <v>2.530741622904627</v>
       </c>
       <c r="E11">
-        <v>10.40773914105901</v>
+        <v>5.686631031539478</v>
       </c>
       <c r="F11">
-        <v>57.77978099216224</v>
+        <v>52.41059013623588</v>
       </c>
       <c r="I11">
-        <v>41.68678013741296</v>
+        <v>36.06197373044636</v>
       </c>
       <c r="J11">
-        <v>10.27147050443699</v>
+        <v>6.214035692808382</v>
       </c>
       <c r="K11">
-        <v>16.51386016131464</v>
+        <v>14.23807779988895</v>
       </c>
       <c r="L11">
-        <v>11.82791925574072</v>
+        <v>7.379997005598297</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.26259641209464</v>
+        <v>16.56980384517648</v>
       </c>
       <c r="C12">
-        <v>6.888117779970691</v>
+        <v>9.723116974642648</v>
       </c>
       <c r="D12">
-        <v>3.695609056831714</v>
+        <v>2.528894081238365</v>
       </c>
       <c r="E12">
-        <v>10.40312027599728</v>
+        <v>5.68886978832043</v>
       </c>
       <c r="F12">
-        <v>57.85373559035433</v>
+        <v>52.78193667377522</v>
       </c>
       <c r="I12">
-        <v>41.72642542281078</v>
+        <v>36.26824355631938</v>
       </c>
       <c r="J12">
-        <v>10.26886194863951</v>
+        <v>6.210564336443882</v>
       </c>
       <c r="K12">
-        <v>16.53128899963657</v>
+        <v>14.43607512659695</v>
       </c>
       <c r="L12">
-        <v>11.82555497256775</v>
+        <v>7.410814311603586</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.2574449233359</v>
+        <v>16.52916330048503</v>
       </c>
       <c r="C13">
-        <v>6.879934593807578</v>
+        <v>9.69415359172279</v>
       </c>
       <c r="D13">
-        <v>3.696556555198409</v>
+        <v>2.529300663193341</v>
       </c>
       <c r="E13">
-        <v>10.40410771026639</v>
+        <v>5.688370717995079</v>
       </c>
       <c r="F13">
-        <v>57.83776683860074</v>
+        <v>52.70191328048236</v>
       </c>
       <c r="I13">
-        <v>41.71786130067465</v>
+        <v>36.22375798992509</v>
       </c>
       <c r="J13">
-        <v>10.26941980345435</v>
+        <v>6.211302602559567</v>
       </c>
       <c r="K13">
-        <v>16.52750872552905</v>
+        <v>14.39357561543777</v>
       </c>
       <c r="L13">
-        <v>11.82605221058178</v>
+        <v>7.404151416883773</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.24076388788504</v>
+        <v>16.39636223172182</v>
       </c>
       <c r="C14">
-        <v>6.853228594962458</v>
+        <v>9.599350233081744</v>
       </c>
       <c r="D14">
-        <v>3.699665517149938</v>
+        <v>2.530593517685445</v>
       </c>
       <c r="E14">
-        <v>10.40735584453239</v>
+        <v>5.686807610305621</v>
       </c>
       <c r="F14">
-        <v>57.78584662291711</v>
+        <v>52.44111974104357</v>
       </c>
       <c r="I14">
-        <v>41.6900301339306</v>
+        <v>36.07891594524767</v>
       </c>
       <c r="J14">
-        <v>10.27125411918038</v>
+        <v>6.213745895787002</v>
       </c>
       <c r="K14">
-        <v>16.51528201120028</v>
+        <v>14.2544316536231</v>
       </c>
       <c r="L14">
-        <v>11.82771935788276</v>
+        <v>7.382520736446699</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.2306380990876</v>
+        <v>16.31481566648552</v>
       </c>
       <c r="C15">
-        <v>6.836856629661704</v>
+        <v>9.541011786961219</v>
       </c>
       <c r="D15">
-        <v>3.701584426797028</v>
+        <v>2.531360226981135</v>
       </c>
       <c r="E15">
-        <v>10.40936686595316</v>
+        <v>5.685899492952459</v>
       </c>
       <c r="F15">
-        <v>57.75416547029032</v>
+        <v>52.28151456495509</v>
       </c>
       <c r="I15">
-        <v>41.67305850685468</v>
+        <v>35.99037587588937</v>
       </c>
       <c r="J15">
-        <v>10.27238924472855</v>
+        <v>6.215269775279672</v>
       </c>
       <c r="K15">
-        <v>16.5078710605739</v>
+        <v>14.16878201611001</v>
       </c>
       <c r="L15">
-        <v>11.82877554132679</v>
+        <v>7.369346798171048</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.17403161112663</v>
+        <v>15.84442819730805</v>
       </c>
       <c r="C16">
-        <v>6.742854393032315</v>
+        <v>9.202513803854734</v>
       </c>
       <c r="D16">
-        <v>3.7128047567002</v>
+        <v>2.535376898865458</v>
       </c>
       <c r="E16">
-        <v>10.42122029606329</v>
+        <v>5.681443120145814</v>
       </c>
       <c r="F16">
-        <v>57.57449856753736</v>
+        <v>51.36901050479948</v>
       </c>
       <c r="I16">
-        <v>41.57697174631046</v>
+        <v>35.48571808716643</v>
       </c>
       <c r="J16">
-        <v>10.27907148842499</v>
+        <v>6.224416798689051</v>
       </c>
       <c r="K16">
-        <v>16.46660990660891</v>
+        <v>13.75685552940737</v>
       </c>
       <c r="L16">
-        <v>11.83536503765181</v>
+        <v>7.295001909646986</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.14058636894487</v>
+        <v>15.55314614821932</v>
       </c>
       <c r="C17">
-        <v>6.685058600093879</v>
+        <v>8.991053342532302</v>
       </c>
       <c r="D17">
-        <v>3.719888182085686</v>
+        <v>2.537514174662752</v>
       </c>
       <c r="E17">
-        <v>10.42878604770298</v>
+        <v>5.679367493783897</v>
       </c>
       <c r="F17">
-        <v>57.4659853727728</v>
+        <v>50.81113832039651</v>
       </c>
       <c r="I17">
-        <v>41.51908043435193</v>
+        <v>35.17853828599925</v>
       </c>
       <c r="J17">
-        <v>10.2833292563951</v>
+        <v>6.230393646354697</v>
       </c>
       <c r="K17">
-        <v>16.44238434666205</v>
+        <v>13.52166301487086</v>
       </c>
       <c r="L17">
-        <v>11.83988697583987</v>
+        <v>7.250412254176876</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.12182557264948</v>
+        <v>15.3846270405712</v>
       </c>
       <c r="C18">
-        <v>6.651782167769419</v>
+        <v>8.868002750808779</v>
       </c>
       <c r="D18">
-        <v>3.724036076451825</v>
+        <v>2.538627010119899</v>
       </c>
       <c r="E18">
-        <v>10.43324589615136</v>
+        <v>5.678412072490449</v>
       </c>
       <c r="F18">
-        <v>57.40420822240798</v>
+        <v>50.49098307445053</v>
       </c>
       <c r="I18">
-        <v>41.48617443532436</v>
+        <v>35.00273527021451</v>
       </c>
       <c r="J18">
-        <v>10.28583652159873</v>
+        <v>6.233964050933276</v>
       </c>
       <c r="K18">
-        <v>16.4288532641465</v>
+        <v>13.38585050843928</v>
       </c>
       <c r="L18">
-        <v>11.84266423009667</v>
+        <v>7.225137078840276</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.1155557311432</v>
+        <v>15.32740271813325</v>
       </c>
       <c r="C19">
-        <v>6.640510822995675</v>
+        <v>8.826092907820845</v>
       </c>
       <c r="D19">
-        <v>3.725453154083107</v>
+        <v>2.538984123192302</v>
       </c>
       <c r="E19">
-        <v>10.43477452799828</v>
+        <v>5.678129211188725</v>
       </c>
       <c r="F19">
-        <v>57.38340179867738</v>
+        <v>50.38270896108811</v>
       </c>
       <c r="I19">
-        <v>41.47510064180392</v>
+        <v>34.94336177484809</v>
       </c>
       <c r="J19">
-        <v>10.28669546160428</v>
+        <v>6.235195567887894</v>
       </c>
       <c r="K19">
-        <v>16.42434136998063</v>
+        <v>13.33977649161959</v>
       </c>
       <c r="L19">
-        <v>11.84363486252535</v>
+        <v>7.216642925582008</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.1440975217426</v>
+        <v>15.58425561779642</v>
       </c>
       <c r="C20">
-        <v>6.691214867076183</v>
+        <v>9.01371047786594</v>
       </c>
       <c r="D20">
-        <v>3.719126515630215</v>
+        <v>2.537298791424786</v>
       </c>
       <c r="E20">
-        <v>10.42796946301071</v>
+        <v>5.67956369487514</v>
       </c>
       <c r="F20">
-        <v>57.47747109789132</v>
+        <v>50.87045080815339</v>
       </c>
       <c r="I20">
-        <v>41.52520262614298</v>
+        <v>35.2111470233318</v>
       </c>
       <c r="J20">
-        <v>10.28286997689009</v>
+        <v>6.229743633225147</v>
       </c>
       <c r="K20">
-        <v>16.44492158391619</v>
+        <v>13.54675554680561</v>
       </c>
       <c r="L20">
-        <v>11.83938735882692</v>
+        <v>7.255120380753404</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.24564440688548</v>
+        <v>16.43541127355408</v>
       </c>
       <c r="C21">
-        <v>6.861075734654603</v>
+        <v>9.627252102311882</v>
       </c>
       <c r="D21">
-        <v>3.698749301902847</v>
+        <v>2.530219049659363</v>
       </c>
       <c r="E21">
-        <v>10.40639732047089</v>
+        <v>5.687256431852</v>
       </c>
       <c r="F21">
-        <v>57.80107158845875</v>
+        <v>52.51769228481269</v>
       </c>
       <c r="I21">
-        <v>41.69818905560673</v>
+        <v>36.12142200809014</v>
       </c>
       <c r="J21">
-        <v>10.27071292878873</v>
+        <v>6.213022543913139</v>
       </c>
       <c r="K21">
-        <v>16.51885700372516</v>
+        <v>14.29538892109706</v>
       </c>
       <c r="L21">
-        <v>11.82722238165701</v>
+        <v>7.388858443878078</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.31613553321995</v>
+        <v>16.98268336929236</v>
       </c>
       <c r="C22">
-        <v>6.971508969194801</v>
+        <v>10.01613992678482</v>
       </c>
       <c r="D22">
-        <v>3.686084622665606</v>
+        <v>2.524474097821706</v>
       </c>
       <c r="E22">
-        <v>10.39325896328184</v>
+        <v>5.694482589787949</v>
       </c>
       <c r="F22">
-        <v>58.01802642340084</v>
+        <v>53.60048147892567</v>
       </c>
       <c r="I22">
-        <v>41.81464749031713</v>
+        <v>36.72436670428217</v>
       </c>
       <c r="J22">
-        <v>10.26328497015265</v>
+        <v>6.203311424362082</v>
       </c>
       <c r="K22">
-        <v>16.57069040892204</v>
+        <v>14.86576510731215</v>
       </c>
       <c r="L22">
-        <v>11.82083911696198</v>
+        <v>7.479634771344274</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.27814148866851</v>
+        <v>16.69142488531197</v>
       </c>
       <c r="C23">
-        <v>6.91263491745187</v>
+        <v>9.809660048214733</v>
       </c>
       <c r="D23">
-        <v>3.692784405651961</v>
+        <v>2.527646789565716</v>
       </c>
       <c r="E23">
-        <v>10.40018345386398</v>
+        <v>5.690420893673741</v>
       </c>
       <c r="F23">
-        <v>57.90174396628822</v>
+        <v>53.02200738067818</v>
       </c>
       <c r="I23">
-        <v>41.7521844187638</v>
+        <v>36.40181569489312</v>
       </c>
       <c r="J23">
-        <v>10.2672021617225</v>
+        <v>6.208381247179324</v>
       </c>
       <c r="K23">
-        <v>16.54270835793963</v>
+        <v>14.56303517542454</v>
       </c>
       <c r="L23">
-        <v>11.82410274798777</v>
+        <v>7.430873929286823</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.14250867268132</v>
+        <v>15.57019431565795</v>
       </c>
       <c r="C24">
-        <v>6.688431767806061</v>
+        <v>9.003471800477648</v>
       </c>
       <c r="D24">
-        <v>3.719470629714211</v>
+        <v>2.537396526373898</v>
       </c>
       <c r="E24">
-        <v>10.42833829766901</v>
+        <v>5.679474252222935</v>
       </c>
       <c r="F24">
-        <v>57.47227650372945</v>
+        <v>50.84363384496014</v>
       </c>
       <c r="I24">
-        <v>41.52243360954176</v>
+        <v>35.19640212702928</v>
       </c>
       <c r="J24">
-        <v>10.28307743205615</v>
+        <v>6.230037086430216</v>
       </c>
       <c r="K24">
-        <v>16.44377326305317</v>
+        <v>13.53541306947455</v>
       </c>
       <c r="L24">
-        <v>11.83961268266021</v>
+        <v>7.252990716002924</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.01446088613152</v>
+        <v>14.32371741719698</v>
       </c>
       <c r="C25">
-        <v>6.445483101346213</v>
+        <v>8.079145225089626</v>
       </c>
       <c r="D25">
-        <v>3.75107560713835</v>
+        <v>2.543495660812658</v>
       </c>
       <c r="E25">
-        <v>10.46284772993057</v>
+        <v>5.676743063548715</v>
       </c>
       <c r="F25">
-        <v>57.03347723196411</v>
+        <v>48.52180408568737</v>
       </c>
       <c r="I25">
-        <v>41.28962188535014</v>
+        <v>33.92978784735593</v>
       </c>
       <c r="J25">
-        <v>10.30243191578426</v>
+        <v>6.258452166337001</v>
       </c>
       <c r="K25">
-        <v>16.35249087744309</v>
+        <v>12.53558600937497</v>
       </c>
       <c r="L25">
-        <v>11.86308625632313</v>
+        <v>7.075298362748625</v>
       </c>
       <c r="M25">
         <v>0</v>
